--- a/server/tempsec.xlsx
+++ b/server/tempsec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CO-PO\co_po_web\server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Express_projects\co_po_web\server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387A38A1-74C3-457C-99EC-9126F215E435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A142F6D-FA01-425B-BF69-F851A6BBD589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
   <si>
     <t>name</t>
   </si>
@@ -375,15 +375,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -400,7 +400,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -411,13 +411,13 @@
         <v>7</v>
       </c>
       <c r="D2">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="E2">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -428,13 +428,13 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -445,13 +445,13 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -462,77 +462,9 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="E5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6">
-        <v>2027</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>2027</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>2027</v>
-      </c>
-      <c r="E8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9">
-        <v>2027</v>
-      </c>
-      <c r="E9">
         <v>4</v>
       </c>
     </row>
